--- a/keyb1.xlsx
+++ b/keyb1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\PycharmProjects\keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A9B76-A21F-44FE-9DC7-6E1DBF34417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224E16A-F57A-424C-BC4B-897134676930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{253BD19C-3C76-4F56-89EF-418FF330F646}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{253BD19C-3C76-4F56-89EF-418FF330F646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>Have you heard of a JWK switch?</t>
-  </si>
-  <si>
     <t>Mechanical keyboard</t>
   </si>
   <si>
@@ -94,15 +91,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Yes, I have heard of them</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>No, I haven't heard of them</t>
-  </si>
-  <si>
     <t>Keyboard</t>
   </si>
   <si>
@@ -196,15 +184,9 @@
     <t>I prefer FPS games, but I normally play on controller unless it's Valorant</t>
   </si>
   <si>
-    <t>I prefer feedback but recently have been looking to switch to a quieter keyboard in respect of getting roommates</t>
-  </si>
-  <si>
     <t>League of Legends</t>
   </si>
   <si>
-    <t>Little</t>
-  </si>
-  <si>
     <t>I mainly play Valorant at the moment. I prefer to play FPS games.</t>
   </si>
   <si>
@@ -217,25 +199,19 @@
     <t>valorant, genshin impact, phasmophobia</t>
   </si>
   <si>
-    <t>little to none, i dont really like the loud sounds</t>
-  </si>
-  <si>
     <t>fps</t>
   </si>
   <si>
-    <t>a little bit of feedback</t>
-  </si>
-  <si>
     <t>Overwatch, Osu, Yakuza.</t>
   </si>
   <si>
-    <t>Bottom</t>
-  </si>
-  <si>
     <t>Gaming, Productivity, Quality, Aesthetics</t>
   </si>
   <si>
     <t>Gaming, Productivity, Quality, Aesthetics, Price</t>
+  </si>
+  <si>
+    <t>Heard?</t>
   </si>
 </sst>
 </file>
@@ -315,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,6 +312,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,71 +633,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E8BE50-FD7E-46B8-B32D-7D5B5239658C}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="67" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="66.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="78.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -730,13 +709,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="4">
         <v>2</v>
@@ -745,18 +724,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -768,33 +747,33 @@
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -806,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="4">
         <v>3</v>
@@ -821,18 +800,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -844,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -859,18 +838,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -882,13 +861,13 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -897,18 +876,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -920,85 +899,89 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="K8" s="6">
         <v>1</v>
       </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
@@ -1007,18 +990,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -1030,13 +1013,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
         <v>3</v>
@@ -1045,16 +1028,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -1066,51 +1049,51 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="4">
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -1119,36 +1102,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4">
         <v>3</v>
@@ -1157,18 +1140,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1180,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -1195,18 +1178,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1218,31 +1201,31 @@
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1254,31 +1237,31 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4">
         <v>1.5</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -1290,31 +1273,31 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4">
         <v>1.5</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
@@ -1326,13 +1309,13 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="4">
         <v>1</v>
@@ -1341,18 +1324,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1364,31 +1347,31 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1401,28 +1384,28 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1434,67 +1417,67 @@
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K21" s="2">
         <v>2</v>
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K22" s="2">
         <v>3</v>
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="64" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1506,13 +1489,13 @@
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K23" s="2">
         <v>2</v>
@@ -1521,18 +1504,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1544,13 +1527,13 @@
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -1559,18 +1542,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="101.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
+    <row r="25" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2">
         <v>3.5</v>
@@ -1582,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -1597,18 +1580,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
+    <row r="26" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
         <v>6</v>
@@ -1620,13 +1603,13 @@
         <v>1.5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" s="2">
         <v>2</v>
@@ -1635,18 +1618,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
+    <row r="27" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2">
         <v>1.5</v>
@@ -1658,13 +1641,13 @@
         <v>3.5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -1673,18 +1656,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
+    <row r="28" spans="1:12" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2">
         <v>3.5</v>
@@ -1696,13 +1679,13 @@
         <v>1.5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" s="2">
         <v>2</v>
@@ -1711,18 +1694,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
+    <row r="29" spans="1:12" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -1734,13 +1717,13 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K29" s="2">
         <v>2</v>
@@ -1749,18 +1732,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
+    <row r="30" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2">
         <v>3.5</v>
@@ -1772,13 +1755,13 @@
         <v>1.5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="2">
         <v>2</v>
@@ -1787,7 +1770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
   </sheetData>

--- a/keyb1.xlsx
+++ b/keyb1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\PycharmProjects\keyboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224E16A-F57A-424C-BC4B-897134676930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF3E84D-C077-40A3-BC8E-AE0BD9AA9E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{253BD19C-3C76-4F56-89EF-418FF330F646}"/>
+    <workbookView xWindow="3060" yWindow="2175" windowWidth="21570" windowHeight="18870" xr2:uid="{253BD19C-3C76-4F56-89EF-418FF330F646}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>User</t>
   </si>
@@ -88,9 +88,6 @@
     <t>FFXIV, LoL, Valorant, Auto-battlers/Card Games</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Keyboard</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>I mainly play Valorant at the moment. I prefer to play FPS games.</t>
   </si>
   <si>
-    <t>I prefer tactile when typing a lot and for gaming I prefer linear switches.</t>
-  </si>
-  <si>
     <t>Gaming, Aesthetics</t>
   </si>
   <si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>Heard?</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -633,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E8BE50-FD7E-46B8-B32D-7D5B5239658C}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,37 +650,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -694,10 +691,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -712,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>3</v>
@@ -732,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -750,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>3</v>
@@ -770,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -785,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>3</v>
@@ -808,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -826,7 +823,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>3</v>
@@ -846,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -861,10 +858,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>3</v>
@@ -884,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -899,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>3</v>
@@ -922,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -940,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>12</v>
@@ -960,7 +957,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -978,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -998,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -1013,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1032,11 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
@@ -1049,10 +1048,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1090,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>12</v>
@@ -1110,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -1128,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>3</v>
@@ -1148,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1166,7 +1165,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1186,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1204,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1222,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1237,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>3</v>
@@ -1258,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
@@ -1273,10 +1272,10 @@
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1294,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -1309,10 +1308,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1332,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1350,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>3</v>
@@ -1368,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1384,7 +1383,7 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>3</v>
@@ -1402,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
@@ -1420,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>3</v>
@@ -1438,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
@@ -1453,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>12</v>
@@ -1474,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1489,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>12</v>
@@ -1512,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1527,10 +1526,10 @@
         <v>3</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>12</v>
@@ -1550,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
         <v>3.5</v>
@@ -1565,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>12</v>
@@ -1588,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1">
         <v>6</v>
@@ -1603,10 +1602,10 @@
         <v>1.5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>3</v>
@@ -1626,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2">
         <v>1.5</v>
@@ -1641,10 +1640,10 @@
         <v>3.5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>3</v>
@@ -1664,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2">
         <v>3.5</v>
@@ -1679,10 +1678,10 @@
         <v>1.5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>12</v>
@@ -1702,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
@@ -1717,10 +1716,10 @@
         <v>3.5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>12</v>
@@ -1740,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
@@ -1755,10 +1754,10 @@
         <v>1.5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>12</v>
